--- a/数据整理/stocks/A股/深证主板/000729-燕京啤酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000729-燕京啤酒.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009486</t>
+          <t>008234</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>光大保德信瑞和混合A</t>
+          <t>光大保德信消费主题股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72.94</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009487</t>
+          <t>003318</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>光大保德信瑞和混合C</t>
+          <t>景顺长城中证500行业中性低波动指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>72.94</t>
+          <t>15.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>87.30</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.57</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008234</t>
+          <t>009486</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>光大保德信消费主题股票</t>
+          <t>光大保德信瑞和混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003318</t>
+          <t>512260</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
+          <t>华安中证500行业中性低波动ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>162211</t>
+          <t>008112</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰达宏利品质生活混合</t>
+          <t>中泰中证500指数增强A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>79.82</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008112</t>
+          <t>162211</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强A</t>
+          <t>泰达宏利品质生活混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -698,15 +778,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>91.74</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.18</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>512260</t>
+          <t>009487</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安中证500行业中性低波动ETF</t>
+          <t>光大保德信瑞和混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>98.08</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -800,15 +910,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>30.13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.65</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -828,15 +948,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>30.13</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.65</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -856,15 +986,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>63.88</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.15</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -884,15 +1024,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>63.88</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.15</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000729-燕京啤酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000729-燕京啤酒.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000729-燕京啤酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000729-燕京啤酒.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000729-燕京啤酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000729-燕京啤酒.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1191,7 +1192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,17 +1203,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1222,14 +1243,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1238,14 +1281,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.16</v>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1254,13 +1319,363 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000729-燕京啤酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000729-燕京啤酒.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.57</v>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1680,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1718,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.16</v>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1669,13 +1756,187 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000729-燕京啤酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000729-燕京啤酒.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1835,7 +1836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1846,17 +1847,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1866,14 +1887,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.17</v>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4706</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1882,14 +1925,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.57</v>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2938</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1898,14 +1963,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1965</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1914,14 +2001,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.16</v>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1930,13 +2039,1645 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015067</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000729-燕京啤酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000729-燕京啤酒.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>2.4</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>0.17</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.57</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>
@@ -583,6 +600,1884 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008317</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信睿盈混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6768</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014292</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3385</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501209</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2519</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013836</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时时代消费混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012202</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中加消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013109</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏优势价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>67.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013027</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012203</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中加消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>73.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014293</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013110</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏优势价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>67.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013837</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时时代消费混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013040</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通欣润混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013039</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通欣润混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2306,7 +4201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2550,7 +4445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2948,7 +4843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3080,7 +4975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3288,7 +5183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000729-燕京啤酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000729-燕京啤酒.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D2" t="n">
-        <v>4.09</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>2.4</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v>0.17</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.57</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>
@@ -600,6 +617,2872 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008317</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信睿盈混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7710</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4897</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4552</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4405</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501209</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2529</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1968</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013836</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时时代消费混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010081</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康浩泽混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商核心引力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016588</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国融甄混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013109</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏优势价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>016069</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>48.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013027</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>016163</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家欣远混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011991</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇安泓利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.88</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>016589</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国融甄混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005212</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇安稳裕债券</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011992</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇安泓利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>24.88</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009133</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇安嘉利混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商核心引力混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012480</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇安信泰稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010082</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰康浩泽混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>016164</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>万家欣远混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012479</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇安信泰稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013110</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏优势价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>46.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013837</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时时代消费混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009134</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇安嘉利混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013040</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>海富通欣润混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>016051</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>46.59</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013039</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>海富通欣润混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2477,7 +5360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4201,7 +7084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4445,7 +7328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4843,7 +7726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4975,7 +7858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5183,7 +8066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
